--- a/results/Preliminaries-Slovenia.xlsx
+++ b/results/Preliminaries-Slovenia.xlsx
@@ -51,52 +51,52 @@
     <t>2018</t>
   </si>
   <si>
-    <t>DeS</t>
-  </si>
-  <si>
-    <t>LDS</t>
-  </si>
-  <si>
-    <t>N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD </t>
-  </si>
-  <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>SLS</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>SNS</t>
-  </si>
-  <si>
-    <t>Zar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL </t>
-  </si>
-  <si>
-    <t>LZJ</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZL </t>
-  </si>
-  <si>
-    <t>L -</t>
-  </si>
-  <si>
-    <t>LMS</t>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)</t>
   </si>
   <si>
     <t>Key</t>
@@ -135,2905 +135,2905 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>DeS+LDS</t>
-  </si>
-  <si>
-    <t>DeS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD </t>
-  </si>
-  <si>
-    <t>DeS+SDS</t>
-  </si>
-  <si>
-    <t>DeS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDS+SD </t>
-  </si>
-  <si>
-    <t>LDS+SDS</t>
-  </si>
-  <si>
-    <t>LDS+SLS</t>
-  </si>
-  <si>
-    <t>LDS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD </t>
-  </si>
-  <si>
-    <t>N.S+SDS</t>
-  </si>
-  <si>
-    <t>N.S+SLS</t>
-  </si>
-  <si>
-    <t>N.S+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS</t>
-  </si>
-  <si>
-    <t>SD +SLS</t>
-  </si>
-  <si>
-    <t>SD +SMS</t>
-  </si>
-  <si>
-    <t>SD +SNS</t>
-  </si>
-  <si>
-    <t>SDS+SLS</t>
-  </si>
-  <si>
-    <t>SDS+SMS</t>
-  </si>
-  <si>
-    <t>SDS+SNS</t>
-  </si>
-  <si>
-    <t>SLS+SMS</t>
-  </si>
-  <si>
-    <t>SLS+SNS</t>
-  </si>
-  <si>
-    <t>SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LDS+SD </t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SMS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SMS+SNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDS+N.S+SD </t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SLS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SMS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SNS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SMS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SLS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SLS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LDS+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SLS+SMS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SLS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>LDS+N.S+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LDS+N.S+SD +SDS+SLS+SMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+Zar</t>
-  </si>
-  <si>
-    <t>SD +Zar</t>
-  </si>
-  <si>
-    <t>SDS+Zar</t>
-  </si>
-  <si>
-    <t>SLS+Zar</t>
-  </si>
-  <si>
-    <t>SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +Zar</t>
-  </si>
-  <si>
-    <t>DeS+SDS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +Zar</t>
-  </si>
-  <si>
-    <t>LDS+SDS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SDS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SLS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SNS+Zar</t>
-  </si>
-  <si>
-    <t>SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>SD +SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>LDS+SD +SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DeS+LDS+SD +SDS+SLS+SNS+Zar</t>
-  </si>
-  <si>
-    <t>DL +DeS</t>
-  </si>
-  <si>
-    <t>DL +LZJ</t>
-  </si>
-  <si>
-    <t>DL +N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +SD </t>
-  </si>
-  <si>
-    <t>DL +SDS</t>
-  </si>
-  <si>
-    <t>DL +SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ</t>
-  </si>
-  <si>
-    <t>LZJ+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZJ+SD </t>
-  </si>
-  <si>
-    <t>LZJ+SDS</t>
-  </si>
-  <si>
-    <t>LZJ+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +DeS+SD </t>
-  </si>
-  <si>
-    <t>DL +DeS+SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LZJ+SD </t>
-  </si>
-  <si>
-    <t>DL +LZJ+SDS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +N.S+SD </t>
-  </si>
-  <si>
-    <t>DL +N.S+SDS</t>
-  </si>
-  <si>
-    <t>DL +N.S+SLS</t>
-  </si>
-  <si>
-    <t>DL +SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LZJ+SD </t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZJ+N.S+SD </t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SDS</t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SLS</t>
-  </si>
-  <si>
-    <t>LZJ+SD +SDS</t>
-  </si>
-  <si>
-    <t>LZJ+SD +SLS</t>
-  </si>
-  <si>
-    <t>LZJ+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +DeS+LZJ+SD </t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +DeS+N.S+SD </t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+SDS+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +LZJ+N.S+SD </t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LZJ+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SDS+SLS</t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>LZJ+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL +DeS+LZJ+N.S+SD </t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>LZJ+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SD +SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +LZJ+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+LZJ+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DL +DeS+LZJ+N.S+SD +SDS+SLS</t>
-  </si>
-  <si>
-    <t>DeS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SMC</t>
-  </si>
-  <si>
-    <t>N.S+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+ZL </t>
-  </si>
-  <si>
-    <t>SD +SMC</t>
-  </si>
-  <si>
-    <t>SD +ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +ZL </t>
-  </si>
-  <si>
-    <t>SDS+SMC</t>
-  </si>
-  <si>
-    <t>SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS+ZL </t>
-  </si>
-  <si>
-    <t>SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMC</t>
-  </si>
-  <si>
-    <t>DeS+N.S+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+SD +ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +ZL </t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SDS+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +ZL </t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SDS+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SDS+ZL </t>
-  </si>
-  <si>
-    <t>SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +ZAA+ZL </t>
-  </si>
-  <si>
-    <t>SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SDS+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SDS+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SDS+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +ZAA+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SDS+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD +SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SDS+SMC+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SDS+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+SD +SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.S+SD +SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+N.S+SD +SDS+SMC+ZAA+ZL </t>
-  </si>
-  <si>
-    <t>DeS+L -</t>
-  </si>
-  <si>
-    <t>DeS+LMS</t>
-  </si>
-  <si>
-    <t>L -+LMS</t>
-  </si>
-  <si>
-    <t>L -+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+SD </t>
-  </si>
-  <si>
-    <t>L -+SDS</t>
-  </si>
-  <si>
-    <t>L -+SMC</t>
-  </si>
-  <si>
-    <t>L -+SNS</t>
-  </si>
-  <si>
-    <t>L -+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS+SD </t>
-  </si>
-  <si>
-    <t>LMS+SDS</t>
-  </si>
-  <si>
-    <t>LMS+SMC</t>
-  </si>
-  <si>
-    <t>LMS+SNS</t>
-  </si>
-  <si>
-    <t>LMS+ZAA</t>
-  </si>
-  <si>
-    <t>SMC+SNS</t>
-  </si>
-  <si>
-    <t>SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+L -+SD </t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LMS+SD </t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+LMS+SD </t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+N.S+SD </t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SMC</t>
-  </si>
-  <si>
-    <t>L -+N.S+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS</t>
-  </si>
-  <si>
-    <t>L -+SD +SMC</t>
-  </si>
-  <si>
-    <t>L -+SD +SNS</t>
-  </si>
-  <si>
-    <t>L -+SD +ZAA</t>
-  </si>
-  <si>
-    <t>L -+SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SNS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMS+N.S+SD </t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SMC</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS</t>
-  </si>
-  <si>
-    <t>LMS+SD +SMC</t>
-  </si>
-  <si>
-    <t>LMS+SD +SNS</t>
-  </si>
-  <si>
-    <t>LMS+SD +ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SMC</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+L -+LMS+SD </t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+L -+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SNS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+LMS+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L -+LMS+N.S+SD </t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeS+L -+LMS+N.S+SD </t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SMC</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>LMS+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SMC+SNS</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SMC+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+LMS+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>L -+LMS+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>DeS+L -+LMS+N.S+SD +SDS+SMC+SNS+ZAA</t>
-  </si>
-  <si>
-    <t>('N.S+SDS+SNS', 'DeS+LDS+SD +SLS')</t>
-  </si>
-  <si>
-    <t>('DeS+LDS+SD +SLS', 'N.S+SDS+SNS')</t>
-  </si>
-  <si>
-    <t>('DeS+SDS+Zar', 'LDS+SD +SLS+SNS')</t>
-  </si>
-  <si>
-    <t>('LDS+SD +SLS+SNS', 'DeS+SDS+Zar')</t>
-  </si>
-  <si>
-    <t>('DL +SD +SDS', 'DeS+LZJ+N.S+SLS')</t>
-  </si>
-  <si>
-    <t>('DeS+LZJ+SD ', 'DL +N.S+SDS+SLS')</t>
-  </si>
-  <si>
-    <t>('LZJ+SD +SLS', 'DL +DeS+N.S+SDS')</t>
-  </si>
-  <si>
-    <t>('DL +DeS+N.S+SDS', 'LZJ+SD +SLS')</t>
-  </si>
-  <si>
-    <t>('DL +N.S+SDS+SLS', 'DeS+LZJ+SD ')</t>
-  </si>
-  <si>
-    <t>('DeS+LZJ+N.S+SLS', 'DL +SD +SDS')</t>
-  </si>
-  <si>
-    <t>('L -+SD +SDS', 'DeS+LMS+N.S+SMC+SNS+ZAA')</t>
-  </si>
-  <si>
-    <t>('L -+SDS+SMC', 'DeS+LMS+N.S+SD +SNS+ZAA')</t>
-  </si>
-  <si>
-    <t>('DeS+L -+SDS+ZAA', 'LMS+N.S+SD +SMC+SNS')</t>
-  </si>
-  <si>
-    <t>('DeS+SD +SDS+SNS', 'L -+LMS+N.S+SMC+ZAA')</t>
-  </si>
-  <si>
-    <t>('DeS+SDS+SMC+SNS', 'L -+LMS+N.S+SD +ZAA')</t>
-  </si>
-  <si>
-    <t>('SD +SDS+SNS+ZAA', 'DeS+L -+LMS+N.S+SMC')</t>
-  </si>
-  <si>
-    <t>('SDS+SMC+SNS+ZAA', 'DeS+L -+LMS+N.S+SD ')</t>
-  </si>
-  <si>
-    <t>('DeS+L -+LMS+N.S+SD ', 'SDS+SMC+SNS+ZAA')</t>
-  </si>
-  <si>
-    <t>('DeS+L -+LMS+N.S+SMC', 'SD +SDS+SNS+ZAA')</t>
-  </si>
-  <si>
-    <t>('L -+LMS+N.S+SD +ZAA', 'DeS+SDS+SMC+SNS')</t>
-  </si>
-  <si>
-    <t>('L -+LMS+N.S+SMC+ZAA', 'DeS+SD +SDS+SNS')</t>
-  </si>
-  <si>
-    <t>('LMS+N.S+SD +SMC+SNS', 'DeS+L -+SDS+ZAA')</t>
-  </si>
-  <si>
-    <t>('DeS+LMS+N.S+SD +SNS+ZAA', 'L -+SDS+SMC')</t>
-  </si>
-  <si>
-    <t>('DeS+LMS+N.S+SMC+SNS+ZAA', 'L -+SD +SDS')</t>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SMS-Zeleni - Party of Youth-Green Europe (Stranka mladih - Zeleni Evrope, SMS-Zeleni), known until July 2009 as Party of the Youth of Slovenia (SMS, Stranka mladih Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)+ZL - Unified Left (Koalicija Združena Levica (DSD, IDS In Stranka TRS), ZL)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)</t>
+  </si>
+  <si>
+    <t>("N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)", "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)")</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)", "N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)")</t>
+  </si>
+  <si>
+    <t>('DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)', "LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)")</t>
+  </si>
+  <si>
+    <t>("LDS - Liberal Democracy of Slovenia (Liberalna demokracija Slovenije, LDS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)", 'DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+Zares - Zares-Social Liberals (Zares-socialno-liberalni, Zares), known until October 2011 as Zares ("For Real")-New Politics (Zares, Zares-nova politika)')</t>
+  </si>
+  <si>
+    <t>('DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)', "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)")</t>
+  </si>
+  <si>
+    <t>('DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)', "DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)")</t>
+  </si>
+  <si>
+    <t>("LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)", "DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)")</t>
+  </si>
+  <si>
+    <t>("DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)", "LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)")</t>
+  </si>
+  <si>
+    <t>("DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)", 'DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)')</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LZJPS - Zoran Janković List - Positive Slovenija (Lista Zorana Jankovića - Pozitivna Slovenija, LZJPS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SLS - Slovene People's Party (Slovenska ljudska stranka, SLS), known until 15 April 2000 as Slovene People's Party (SLS, Slovenska ljudska stranka), known from 15 April 2000 until May 2002 as SLSplusSKD Slovene People's Party (SLSplusSKD, SLSplusSKD Slovenska ljudska stranka)", 'DL - Civic List (Državljanska Lista Gregorja Viranta, DL), known until April 2012 as Civic List of Gregor Virant (Državljanska Lista Gregorja Viranta, DLGV)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)')</t>
+  </si>
+  <si>
+    <t>('L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)', "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)")</t>
+  </si>
+  <si>
+    <t>('L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)', "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)")</t>
+  </si>
+  <si>
+    <t>('DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)', "LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)")</t>
+  </si>
+  <si>
+    <t>('DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)', "L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)")</t>
+  </si>
+  <si>
+    <t>('DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)', "L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)")</t>
+  </si>
+  <si>
+    <t>('SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)', "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)")</t>
+  </si>
+  <si>
+    <t>('SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)', "DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)")</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)", 'SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)')</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)", 'SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)')</t>
+  </si>
+  <si>
+    <t>("L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)", 'DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)')</t>
+  </si>
+  <si>
+    <t>("L - Left (Levica, L)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)", 'DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)')</t>
+  </si>
+  <si>
+    <t>("LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)", 'DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)')</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)", 'L - Left (Levica, L)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)')</t>
+  </si>
+  <si>
+    <t>("DeSUS - Democratic Party of Pensioners of Slovenia (Demokratična stranka upokojencev Slovenije, DeSUS)+LMS - List of Marjan Sarec (Lista Marjana Šarca, LMS)+N.Si - New Slovenia/Christian People's Party (Nova Slovenija/krščanska ljudska stranka, N.Si)+SMC - Modern Centre Party (Stranka modernega centra, SMC), known until March 7 2015 as Party of Miro Cerar (SMC, Stranka Mira Cerarja)+SNS - Slovenian National Party (Slovenska nacionalna stranka, SNS)+ZAAB - Alliance of Alenka Bratušek (Zavezništvo Alenke Bratušek, ZAAB)", 'L - Left (Levica, L)+SD - Social Democrats (Socialni demokrati, SD), known until 29 May 2003 as Social Democratic Renewal  (SDP, Socialdemokratska prenova), known from 29 May 2003 until 10 June 2005 as United List of Social Democrats (si_sd01, Združena lista socialnih demokratov)+SDS - Slovenian Democratic Party (Slovenska demokratska stranka, SDS), known until 19 September 2003 as Social Democratic Party of Slovenia (SDS, Socialdemokratska stranka Slovenije)')</t>
   </si>
 </sst>
 </file>
